--- a/Code/Results/Cases/Case_6_38/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_38/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.024745279906034</v>
+        <v>1.047214761059907</v>
       </c>
       <c r="D2">
-        <v>1.039341246685119</v>
+        <v>1.059137885000845</v>
       </c>
       <c r="E2">
-        <v>1.034249656808779</v>
+        <v>1.05394972152032</v>
       </c>
       <c r="F2">
-        <v>1.042111491859532</v>
+        <v>1.062253829611095</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05815374569373</v>
+        <v>1.072058502179942</v>
       </c>
       <c r="J2">
-        <v>1.046210240321599</v>
+        <v>1.068069496457664</v>
       </c>
       <c r="K2">
-        <v>1.050278409816465</v>
+        <v>1.069830520187078</v>
       </c>
       <c r="L2">
-        <v>1.045251602086471</v>
+        <v>1.064705336492973</v>
       </c>
       <c r="M2">
-        <v>1.053013739820239</v>
+        <v>1.072909006783961</v>
       </c>
       <c r="N2">
-        <v>1.047695978864847</v>
+        <v>1.069586277651918</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.03319110656694</v>
+        <v>1.054275984591216</v>
       </c>
       <c r="D3">
-        <v>1.045987127803063</v>
+        <v>1.0648142102744</v>
       </c>
       <c r="E3">
-        <v>1.041760749643453</v>
+        <v>1.060281468062441</v>
       </c>
       <c r="F3">
-        <v>1.049987487939521</v>
+        <v>1.068979157381343</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.061502123222352</v>
+        <v>1.075294191814695</v>
       </c>
       <c r="J3">
-        <v>1.052816100487969</v>
+        <v>1.073388960275509</v>
       </c>
       <c r="K3">
-        <v>1.056063557842937</v>
+        <v>1.074679878084747</v>
       </c>
       <c r="L3">
-        <v>1.051885785465132</v>
+        <v>1.070197037068234</v>
       </c>
       <c r="M3">
-        <v>1.06001835597946</v>
+        <v>1.078799430808503</v>
       </c>
       <c r="N3">
-        <v>1.054311220110356</v>
+        <v>1.074913295718535</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.038472500938966</v>
+        <v>1.058712334403601</v>
       </c>
       <c r="D4">
-        <v>1.050144837434869</v>
+        <v>1.068382278222657</v>
       </c>
       <c r="E4">
-        <v>1.046459117905537</v>
+        <v>1.064260119995235</v>
       </c>
       <c r="F4">
-        <v>1.054917615006379</v>
+        <v>1.073208641960743</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.063581410041938</v>
+        <v>1.077315131677435</v>
       </c>
       <c r="J4">
-        <v>1.056940772134944</v>
+        <v>1.076724733375397</v>
       </c>
       <c r="K4">
-        <v>1.059673504771482</v>
+        <v>1.077719917787614</v>
       </c>
       <c r="L4">
-        <v>1.056027382429204</v>
+        <v>1.07364023806266</v>
       </c>
       <c r="M4">
-        <v>1.064395509494146</v>
+        <v>1.082497051301911</v>
       </c>
       <c r="N4">
-        <v>1.058441749264177</v>
+        <v>1.078253805998843</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.040651601806834</v>
+        <v>1.060547283729581</v>
       </c>
       <c r="D5">
-        <v>1.051860641481258</v>
+        <v>1.069858455133173</v>
       </c>
       <c r="E5">
-        <v>1.048397939878173</v>
+        <v>1.065905852861405</v>
       </c>
       <c r="F5">
-        <v>1.056952913216612</v>
+        <v>1.074958978566869</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.064435774295114</v>
+        <v>1.078148121522381</v>
       </c>
       <c r="J5">
-        <v>1.058641075276706</v>
+        <v>1.078102917983899</v>
       </c>
       <c r="K5">
-        <v>1.061161054123259</v>
+        <v>1.078975683232346</v>
       </c>
       <c r="L5">
-        <v>1.05773447765233</v>
+        <v>1.075062666175792</v>
       </c>
       <c r="M5">
-        <v>1.066200724402542</v>
+        <v>1.084025647332948</v>
       </c>
       <c r="N5">
-        <v>1.060144467031427</v>
+        <v>1.07963394778757</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.041015141976298</v>
+        <v>1.060853661686276</v>
       </c>
       <c r="D6">
-        <v>1.052146906253534</v>
+        <v>1.070104948983193</v>
       </c>
       <c r="E6">
-        <v>1.04872140837236</v>
+        <v>1.066180641879493</v>
       </c>
       <c r="F6">
-        <v>1.057292526891445</v>
+        <v>1.075251283406016</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.064578097768826</v>
+        <v>1.07828703227164</v>
       </c>
       <c r="J6">
-        <v>1.058924645516321</v>
+        <v>1.078332938671416</v>
       </c>
       <c r="K6">
-        <v>1.061409107857001</v>
+        <v>1.079185257801166</v>
       </c>
       <c r="L6">
-        <v>1.058019169697273</v>
+        <v>1.075300062845292</v>
       </c>
       <c r="M6">
-        <v>1.066501840164684</v>
+        <v>1.084280825595455</v>
       </c>
       <c r="N6">
-        <v>1.060428439973309</v>
+        <v>1.079864295130847</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.038501776615194</v>
+        <v>1.058736969198886</v>
       </c>
       <c r="D7">
-        <v>1.050167887650331</v>
+        <v>1.068402095030961</v>
       </c>
       <c r="E7">
-        <v>1.04648516449588</v>
+        <v>1.064282214186316</v>
       </c>
       <c r="F7">
-        <v>1.054944954359827</v>
+        <v>1.073232137105084</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.063592902345456</v>
+        <v>1.077326326386229</v>
       </c>
       <c r="J7">
-        <v>1.056963621438078</v>
+        <v>1.07674324213092</v>
       </c>
       <c r="K7">
-        <v>1.059693497300592</v>
+        <v>1.077736783426685</v>
       </c>
       <c r="L7">
-        <v>1.056050323743151</v>
+        <v>1.073659341558709</v>
       </c>
       <c r="M7">
-        <v>1.064419765353909</v>
+        <v>1.082517576438067</v>
       </c>
       <c r="N7">
-        <v>1.058464631015942</v>
+        <v>1.078272341038921</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.027639356755101</v>
+        <v>1.049629676003741</v>
       </c>
       <c r="D8">
-        <v>1.041618079641018</v>
+        <v>1.061078743605883</v>
       </c>
       <c r="E8">
-        <v>1.036823068296533</v>
+        <v>1.056114996326016</v>
       </c>
       <c r="F8">
-        <v>1.044809182309462</v>
+        <v>1.064552958230258</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.059304151982797</v>
+        <v>1.073167592597201</v>
       </c>
       <c r="J8">
-        <v>1.048475089326304</v>
+        <v>1.069890035398075</v>
       </c>
       <c r="K8">
-        <v>1.052262340701968</v>
+        <v>1.071490359919975</v>
       </c>
       <c r="L8">
-        <v>1.047526320853603</v>
+        <v>1.066584943339133</v>
       </c>
       <c r="M8">
-        <v>1.055414557099576</v>
+        <v>1.074924147839069</v>
       </c>
       <c r="N8">
-        <v>1.049964044214921</v>
+        <v>1.071409401966443</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.006951786070097</v>
+        <v>1.032481379731011</v>
       </c>
       <c r="D9">
-        <v>1.025356206874312</v>
+        <v>1.04730771467516</v>
       </c>
       <c r="E9">
-        <v>1.018437982180676</v>
+        <v>1.040744389610083</v>
       </c>
       <c r="F9">
-        <v>1.02555156700408</v>
+        <v>1.048247168527485</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051020067430546</v>
+        <v>1.065242072835398</v>
       </c>
       <c r="J9">
-        <v>1.032261424766163</v>
+        <v>1.056937064904368</v>
       </c>
       <c r="K9">
-        <v>1.038050869356959</v>
+        <v>1.059677207438305</v>
       </c>
       <c r="L9">
-        <v>1.031238834817447</v>
+        <v>1.053209280833636</v>
       </c>
       <c r="M9">
-        <v>1.038243257353264</v>
+        <v>1.060603130052517</v>
       </c>
       <c r="N9">
-        <v>1.033727354391371</v>
+        <v>1.058438036768907</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9918933858518889</v>
+        <v>1.020178749756096</v>
       </c>
       <c r="D10">
-        <v>1.013543569986427</v>
+        <v>1.037446091821375</v>
       </c>
       <c r="E10">
-        <v>1.00507384955377</v>
+        <v>1.029726508795208</v>
       </c>
       <c r="F10">
-        <v>1.011573064817499</v>
+        <v>1.036577930654878</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044915362988592</v>
+        <v>1.059494246881015</v>
       </c>
       <c r="J10">
-        <v>1.020432371097207</v>
+        <v>1.04761402293915</v>
       </c>
       <c r="K10">
-        <v>1.027672522269045</v>
+        <v>1.051170631582867</v>
       </c>
       <c r="L10">
-        <v>1.019352094415921</v>
+        <v>1.043579012561686</v>
       </c>
       <c r="M10">
-        <v>1.025736461325447</v>
+        <v>1.050316739174639</v>
       </c>
       <c r="N10">
-        <v>1.021881502109394</v>
+        <v>1.049101755014732</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9850106366969934</v>
+        <v>1.014611047612099</v>
       </c>
       <c r="D11">
-        <v>1.008152732736212</v>
+        <v>1.032988820591761</v>
       </c>
       <c r="E11">
-        <v>0.9989717592903677</v>
+        <v>1.024743552203117</v>
       </c>
       <c r="F11">
-        <v>1.005195220612269</v>
+        <v>1.031304827437409</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042108548825749</v>
+        <v>1.056879023467229</v>
       </c>
       <c r="J11">
-        <v>1.015020564858815</v>
+        <v>1.043388373793144</v>
       </c>
       <c r="K11">
-        <v>1.022922520981896</v>
+        <v>1.04731432419562</v>
       </c>
       <c r="L11">
-        <v>1.01391309281125</v>
+        <v>1.039213455290832</v>
       </c>
       <c r="M11">
-        <v>1.020019823250689</v>
+        <v>1.04565957992339</v>
       </c>
       <c r="N11">
-        <v>1.0164620104854</v>
+        <v>1.044870104962249</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9823933076983925</v>
+        <v>1.012503466215286</v>
       </c>
       <c r="D12">
-        <v>1.006104252959977</v>
+        <v>1.031302575012247</v>
       </c>
       <c r="E12">
-        <v>0.9966524272310644</v>
+        <v>1.022857922080511</v>
       </c>
       <c r="F12">
-        <v>1.002771797780424</v>
+        <v>1.02931006036443</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041038830193484</v>
+        <v>1.055887033231584</v>
       </c>
       <c r="J12">
-        <v>1.012961969053799</v>
+        <v>1.041787924278045</v>
       </c>
       <c r="K12">
-        <v>1.021115432149568</v>
+        <v>1.045853673400913</v>
       </c>
       <c r="L12">
-        <v>1.011844043704701</v>
+        <v>1.037559922872591</v>
       </c>
       <c r="M12">
-        <v>1.01784608648925</v>
+        <v>1.043896474522887</v>
       </c>
       <c r="N12">
-        <v>1.014400491238217</v>
+        <v>1.043267382625265</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.982957596751197</v>
+        <v>1.012957394907103</v>
       </c>
       <c r="D13">
-        <v>1.006545826870661</v>
+        <v>1.031665709512797</v>
       </c>
       <c r="E13">
-        <v>0.9971524144620917</v>
+        <v>1.023264018089176</v>
       </c>
       <c r="F13">
-        <v>1.003294191724393</v>
+        <v>1.029739630874867</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041269562941713</v>
+        <v>1.056100777559921</v>
       </c>
       <c r="J13">
-        <v>1.013405822623646</v>
+        <v>1.042132666058549</v>
       </c>
       <c r="K13">
-        <v>1.021505068186148</v>
+        <v>1.046168305742828</v>
       </c>
       <c r="L13">
-        <v>1.012290155770317</v>
+        <v>1.037916102975285</v>
       </c>
       <c r="M13">
-        <v>1.018314728389385</v>
+        <v>1.044276217692291</v>
       </c>
       <c r="N13">
-        <v>1.014844975131044</v>
+        <v>1.043612613978639</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9847955674976072</v>
+        <v>1.014437660695473</v>
       </c>
       <c r="D14">
-        <v>1.007984374331806</v>
+        <v>1.032850075168349</v>
       </c>
       <c r="E14">
-        <v>0.9987811527289016</v>
+        <v>1.024588411934388</v>
       </c>
       <c r="F14">
-        <v>1.004996045097989</v>
+        <v>1.031140694602185</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042020695734158</v>
+        <v>1.056797454992443</v>
       </c>
       <c r="J14">
-        <v>1.014851419311656</v>
+        <v>1.043256725177033</v>
       </c>
       <c r="K14">
-        <v>1.022774045129876</v>
+        <v>1.04719417670734</v>
       </c>
       <c r="L14">
-        <v>1.013743090477556</v>
+        <v>1.039077442071891</v>
       </c>
       <c r="M14">
-        <v>1.019841200437939</v>
+        <v>1.045514535879028</v>
       </c>
       <c r="N14">
-        <v>1.016292624732164</v>
+        <v>1.044738269390003</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9859197422559952</v>
+        <v>1.015344361377698</v>
       </c>
       <c r="D15">
-        <v>1.00886445305017</v>
+        <v>1.033575664745107</v>
       </c>
       <c r="E15">
-        <v>0.999777507528723</v>
+        <v>1.025399719706751</v>
       </c>
       <c r="F15">
-        <v>1.006037221487708</v>
+        <v>1.031999055846224</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042479812151804</v>
+        <v>1.057223922878826</v>
       </c>
       <c r="J15">
-        <v>1.015735524825423</v>
+        <v>1.043945126235587</v>
       </c>
       <c r="K15">
-        <v>1.02355010307075</v>
+        <v>1.047822433997512</v>
       </c>
       <c r="L15">
-        <v>1.014631670004069</v>
+        <v>1.039788662235413</v>
       </c>
       <c r="M15">
-        <v>1.020774875781727</v>
+        <v>1.046273014310822</v>
       </c>
       <c r="N15">
-        <v>1.017177985777168</v>
+        <v>1.045427648057021</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9923420196656663</v>
+        <v>1.02054291504594</v>
       </c>
       <c r="D16">
-        <v>1.013895150619994</v>
+        <v>1.03773775704352</v>
       </c>
       <c r="E16">
-        <v>1.005471742610381</v>
+        <v>1.030052504975971</v>
       </c>
       <c r="F16">
-        <v>1.011989037302683</v>
+        <v>1.036923000118581</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045097986964903</v>
+        <v>1.059665016496141</v>
       </c>
       <c r="J16">
-        <v>1.02078503144257</v>
+        <v>1.047890282751338</v>
       </c>
       <c r="K16">
-        <v>1.027982020926667</v>
+        <v>1.051422731728603</v>
       </c>
       <c r="L16">
-        <v>1.01970651135095</v>
+        <v>1.043864405966233</v>
       </c>
       <c r="M16">
-        <v>1.026109096075918</v>
+        <v>1.050621316342174</v>
       </c>
       <c r="N16">
-        <v>1.022234663272898</v>
+        <v>1.04937840714754</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9962693745651574</v>
+        <v>1.023737187301391</v>
       </c>
       <c r="D17">
-        <v>1.016973865040431</v>
+        <v>1.040296756507805</v>
       </c>
       <c r="E17">
-        <v>1.008955633599779</v>
+        <v>1.032912362911034</v>
       </c>
       <c r="F17">
-        <v>1.015631764880167</v>
+        <v>1.039950681743518</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046694840646745</v>
+        <v>1.06116135100408</v>
       </c>
       <c r="J17">
-        <v>1.023871673952615</v>
+        <v>1.050312779645941</v>
       </c>
       <c r="K17">
-        <v>1.030690685421538</v>
+        <v>1.053633295802735</v>
       </c>
       <c r="L17">
-        <v>1.022808439305075</v>
+        <v>1.046366920796516</v>
       </c>
       <c r="M17">
-        <v>1.029371153656386</v>
+        <v>1.053292704116926</v>
       </c>
       <c r="N17">
-        <v>1.02532568916935</v>
+        <v>1.051804344265598</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9985256492776091</v>
+        <v>1.02557738651358</v>
       </c>
       <c r="D18">
-        <v>1.018743357168017</v>
+        <v>1.04177150749636</v>
       </c>
       <c r="E18">
-        <v>1.01095770801108</v>
+        <v>1.03456021248319</v>
       </c>
       <c r="F18">
-        <v>1.017725562641498</v>
+        <v>1.041695648836341</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047610684192664</v>
+        <v>1.062022061582586</v>
       </c>
       <c r="J18">
-        <v>1.025644471751252</v>
+        <v>1.051707757986228</v>
       </c>
       <c r="K18">
-        <v>1.032246213216072</v>
+        <v>1.054906165125841</v>
       </c>
       <c r="L18">
-        <v>1.024589940288925</v>
+        <v>1.047807914678847</v>
       </c>
       <c r="M18">
-        <v>1.031245186940916</v>
+        <v>1.054831485220091</v>
       </c>
       <c r="N18">
-        <v>1.027101004544204</v>
+        <v>1.053201303635134</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9992893072476441</v>
+        <v>1.026201046340762</v>
       </c>
       <c r="D19">
-        <v>1.019342381378101</v>
+        <v>1.042271399474586</v>
       </c>
       <c r="E19">
-        <v>1.011635421056768</v>
+        <v>1.035118732006526</v>
       </c>
       <c r="F19">
-        <v>1.018434399973896</v>
+        <v>1.042287156249649</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047920393547527</v>
+        <v>1.062313538569026</v>
       </c>
       <c r="J19">
-        <v>1.026244406181404</v>
+        <v>1.052180423577504</v>
       </c>
       <c r="K19">
-        <v>1.032772589186479</v>
+        <v>1.055337443816965</v>
       </c>
       <c r="L19">
-        <v>1.025192806779627</v>
+        <v>1.048296161176342</v>
       </c>
       <c r="M19">
-        <v>1.031879462417634</v>
+        <v>1.055352957374676</v>
       </c>
       <c r="N19">
-        <v>1.02770179095006</v>
+        <v>1.053674640465766</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9958516159621023</v>
+        <v>1.023396870406125</v>
       </c>
       <c r="D20">
-        <v>1.016646296475725</v>
+        <v>1.040024065581298</v>
       </c>
       <c r="E20">
-        <v>1.008584986270664</v>
+        <v>1.032607642101299</v>
       </c>
       <c r="F20">
-        <v>1.015244172749137</v>
+        <v>1.039628035804101</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046525141661936</v>
+        <v>1.061002068438424</v>
       </c>
       <c r="J20">
-        <v>1.023543392802706</v>
+        <v>1.050054749975475</v>
       </c>
       <c r="K20">
-        <v>1.030402622713515</v>
+        <v>1.053397846961503</v>
       </c>
       <c r="L20">
-        <v>1.022478540289477</v>
+        <v>1.046100374534309</v>
       </c>
       <c r="M20">
-        <v>1.029024165344659</v>
+        <v>1.053008114094196</v>
       </c>
       <c r="N20">
-        <v>1.024996941822554</v>
+        <v>1.051545948163403</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9842560645637957</v>
+        <v>1.0140028784012</v>
       </c>
       <c r="D21">
-        <v>1.00756207108291</v>
+        <v>1.032502175849598</v>
       </c>
       <c r="E21">
-        <v>0.9983030334315778</v>
+        <v>1.024199394727684</v>
       </c>
       <c r="F21">
-        <v>1.004496442935639</v>
+        <v>1.030729138934569</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041800278034729</v>
+        <v>1.056592882756256</v>
       </c>
       <c r="J21">
-        <v>1.014427106676105</v>
+        <v>1.042926591231389</v>
       </c>
       <c r="K21">
-        <v>1.022401580141603</v>
+        <v>1.046892882681201</v>
       </c>
       <c r="L21">
-        <v>1.013316626842642</v>
+        <v>1.038736361577814</v>
       </c>
       <c r="M21">
-        <v>1.019393126636277</v>
+        <v>1.04515082286765</v>
       </c>
       <c r="N21">
-        <v>1.015867709524001</v>
+        <v>1.04440766661629</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9766099337545251</v>
+        <v>1.007866049156521</v>
       </c>
       <c r="D22">
-        <v>1.001580953139887</v>
+        <v>1.027594247199646</v>
       </c>
       <c r="E22">
-        <v>0.991529856930119</v>
+        <v>1.018710116286174</v>
       </c>
       <c r="F22">
-        <v>0.9974206632604167</v>
+        <v>1.02492339365594</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038670917279757</v>
+        <v>1.053700641969553</v>
       </c>
       <c r="J22">
-        <v>1.008412209838346</v>
+        <v>1.038264834202674</v>
       </c>
       <c r="K22">
-        <v>1.017121155964058</v>
+        <v>1.042638185114032</v>
       </c>
       <c r="L22">
-        <v>1.00727099738452</v>
+        <v>1.033919816255638</v>
       </c>
       <c r="M22">
-        <v>1.013043391075253</v>
+        <v>1.040016770914308</v>
       </c>
       <c r="N22">
-        <v>1.009844270842814</v>
+        <v>1.039739289357883</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9806993963552378</v>
+        <v>1.011142375250535</v>
       </c>
       <c r="D23">
-        <v>1.004778957969772</v>
+        <v>1.03021388499899</v>
       </c>
       <c r="E23">
-        <v>0.9951517229512171</v>
+        <v>1.021640353153721</v>
       </c>
       <c r="F23">
-        <v>1.001203945915125</v>
+        <v>1.02802220549251</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040345869369461</v>
+        <v>1.055245835469016</v>
       </c>
       <c r="J23">
-        <v>1.011629506786925</v>
+        <v>1.040754103465521</v>
       </c>
       <c r="K23">
-        <v>1.01994570190461</v>
+        <v>1.044910134289377</v>
       </c>
       <c r="L23">
-        <v>1.010504786590998</v>
+        <v>1.03649178736807</v>
       </c>
       <c r="M23">
-        <v>1.016439330605563</v>
+        <v>1.042757805139697</v>
       </c>
       <c r="N23">
-        <v>1.013066136722089</v>
+        <v>1.042232093668606</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9960404891951264</v>
+        <v>1.023550715685519</v>
       </c>
       <c r="D24">
-        <v>1.016794391450436</v>
+        <v>1.040147337911689</v>
       </c>
       <c r="E24">
-        <v>1.008752558220184</v>
+        <v>1.032745394707014</v>
       </c>
       <c r="F24">
-        <v>1.015419404163859</v>
+        <v>1.039773890376815</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046601869266512</v>
+        <v>1.061074078573937</v>
       </c>
       <c r="J24">
-        <v>1.023691813820888</v>
+        <v>1.050171397988007</v>
       </c>
       <c r="K24">
-        <v>1.030532860912018</v>
+        <v>1.053504287027048</v>
       </c>
       <c r="L24">
-        <v>1.022627693006924</v>
+        <v>1.046220872854059</v>
       </c>
       <c r="M24">
-        <v>1.029181042649977</v>
+        <v>1.053136767807833</v>
       </c>
       <c r="N24">
-        <v>1.025145573615606</v>
+        <v>1.051662761829493</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.012504752666006</v>
+        <v>1.037057580886668</v>
       </c>
       <c r="D25">
-        <v>1.029717867349251</v>
+        <v>1.050980010290234</v>
       </c>
       <c r="E25">
-        <v>1.023370370669505</v>
+        <v>1.04484492020758</v>
       </c>
       <c r="F25">
-        <v>1.030714694995536</v>
+        <v>1.052593928989282</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053256666467761</v>
+        <v>1.067367818755391</v>
       </c>
       <c r="J25">
-        <v>1.036618488010664</v>
+        <v>1.060399081132835</v>
       </c>
       <c r="K25">
-        <v>1.041871725189974</v>
+        <v>1.062835310198545</v>
       </c>
       <c r="L25">
-        <v>1.035616409505371</v>
+        <v>1.056784794104332</v>
       </c>
       <c r="M25">
-        <v>1.042854207134869</v>
+        <v>1.064427186757179</v>
       </c>
       <c r="N25">
-        <v>1.038090605165442</v>
+        <v>1.061904969457519</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_38/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_38/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.047214761059907</v>
+        <v>1.02570487336381</v>
       </c>
       <c r="D2">
-        <v>1.059137885000845</v>
+        <v>1.039755015249092</v>
       </c>
       <c r="E2">
-        <v>1.05394972152032</v>
+        <v>1.037040507644606</v>
       </c>
       <c r="F2">
-        <v>1.062253829611095</v>
+        <v>1.044406130395206</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.072058502179942</v>
+        <v>1.059112190826378</v>
       </c>
       <c r="J2">
-        <v>1.068069496457664</v>
+        <v>1.047143026781698</v>
       </c>
       <c r="K2">
-        <v>1.069830520187078</v>
+        <v>1.050686948641473</v>
       </c>
       <c r="L2">
-        <v>1.064705336492973</v>
+        <v>1.048006845528842</v>
       </c>
       <c r="M2">
-        <v>1.072909006783961</v>
+        <v>1.055279632380579</v>
       </c>
       <c r="N2">
-        <v>1.069586277651918</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.019135543597058</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.046910300456747</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.054275984591216</v>
+        <v>1.030036722731848</v>
       </c>
       <c r="D3">
-        <v>1.0648142102744</v>
+        <v>1.042723756375205</v>
       </c>
       <c r="E3">
-        <v>1.060281468062441</v>
+        <v>1.040719192223449</v>
       </c>
       <c r="F3">
-        <v>1.068979157381343</v>
+        <v>1.048522604104317</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.075294191814695</v>
+        <v>1.060578320986187</v>
       </c>
       <c r="J3">
-        <v>1.073388960275509</v>
+        <v>1.049740750789884</v>
       </c>
       <c r="K3">
-        <v>1.074679878084747</v>
+        <v>1.052837674254621</v>
       </c>
       <c r="L3">
-        <v>1.070197037068234</v>
+        <v>1.050856281479275</v>
       </c>
       <c r="M3">
-        <v>1.078799430808503</v>
+        <v>1.058570106645479</v>
       </c>
       <c r="N3">
-        <v>1.074913295718535</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.02003493911085</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.048428383786763</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.058712334403601</v>
+        <v>1.032786889618259</v>
       </c>
       <c r="D4">
-        <v>1.068382278222657</v>
+        <v>1.044612236817442</v>
       </c>
       <c r="E4">
-        <v>1.064260119995235</v>
+        <v>1.043060207290821</v>
       </c>
       <c r="F4">
-        <v>1.073208641960743</v>
+        <v>1.051142181659532</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.077315131677435</v>
+        <v>1.061500176195089</v>
       </c>
       <c r="J4">
-        <v>1.076724733375397</v>
+        <v>1.05138752759453</v>
       </c>
       <c r="K4">
-        <v>1.077719917787614</v>
+        <v>1.054200472022064</v>
       </c>
       <c r="L4">
-        <v>1.07364023806266</v>
+        <v>1.052665291989756</v>
       </c>
       <c r="M4">
-        <v>1.082497051301911</v>
+        <v>1.060660192579324</v>
       </c>
       <c r="N4">
-        <v>1.078253805998843</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.020605056936463</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.049392862025617</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.060547283729581</v>
+        <v>1.033935425424472</v>
       </c>
       <c r="D5">
-        <v>1.069858455133173</v>
+        <v>1.045403977170956</v>
       </c>
       <c r="E5">
-        <v>1.065905852861405</v>
+        <v>1.044039670882673</v>
       </c>
       <c r="F5">
-        <v>1.074958978566869</v>
+        <v>1.052237609555832</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.078148121522381</v>
+        <v>1.0618846551332</v>
       </c>
       <c r="J5">
-        <v>1.078102917983899</v>
+        <v>1.052076382577181</v>
       </c>
       <c r="K5">
-        <v>1.078975683232346</v>
+        <v>1.054771985772097</v>
       </c>
       <c r="L5">
-        <v>1.075062666175792</v>
+        <v>1.053422093520831</v>
       </c>
       <c r="M5">
-        <v>1.084025647332948</v>
+        <v>1.061534106944159</v>
       </c>
       <c r="N5">
-        <v>1.07963394778757</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.020844439013195</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.049804038182818</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.060853661686276</v>
+        <v>1.034133144570286</v>
       </c>
       <c r="D6">
-        <v>1.070104948983193</v>
+        <v>1.045543007810953</v>
       </c>
       <c r="E6">
-        <v>1.066180641879493</v>
+        <v>1.04420897246323</v>
       </c>
       <c r="F6">
-        <v>1.075251283406016</v>
+        <v>1.052426245297062</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.07828703227164</v>
+        <v>1.061952748038313</v>
       </c>
       <c r="J6">
-        <v>1.078332938671416</v>
+        <v>1.052197039784708</v>
       </c>
       <c r="K6">
-        <v>1.079185257801166</v>
+        <v>1.054874018453103</v>
       </c>
       <c r="L6">
-        <v>1.075300062845292</v>
+        <v>1.053554012208389</v>
       </c>
       <c r="M6">
-        <v>1.084280825595455</v>
+        <v>1.061685559568027</v>
       </c>
       <c r="N6">
-        <v>1.079864295130847</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.020887476188172</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.049884812199934</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.058736969198886</v>
+        <v>1.032817323745942</v>
       </c>
       <c r="D7">
-        <v>1.068402095030961</v>
+        <v>1.044640397293797</v>
       </c>
       <c r="E7">
-        <v>1.064282214186316</v>
+        <v>1.043087824798809</v>
       </c>
       <c r="F7">
-        <v>1.073232137105084</v>
+        <v>1.05117114256052</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.077326326386229</v>
+        <v>1.06151582813143</v>
       </c>
       <c r="J7">
-        <v>1.07674324213092</v>
+        <v>1.05141145021841</v>
       </c>
       <c r="K7">
-        <v>1.077736783426685</v>
+        <v>1.054225496472409</v>
       </c>
       <c r="L7">
-        <v>1.073659341558709</v>
+        <v>1.05268977266234</v>
       </c>
       <c r="M7">
-        <v>1.082517576438067</v>
+        <v>1.060686036843944</v>
       </c>
       <c r="N7">
-        <v>1.078272341038921</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.020616392965645</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.049430409943275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.049629676003741</v>
+        <v>1.027198986332981</v>
       </c>
       <c r="D8">
-        <v>1.061078743605883</v>
+        <v>1.040787079639959</v>
       </c>
       <c r="E8">
-        <v>1.056114996326016</v>
+        <v>1.038310392194208</v>
       </c>
       <c r="F8">
-        <v>1.064552958230258</v>
+        <v>1.045824669103841</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.073167592597201</v>
+        <v>1.059626421645707</v>
       </c>
       <c r="J8">
-        <v>1.069890035398075</v>
+        <v>1.048046583481578</v>
       </c>
       <c r="K8">
-        <v>1.071490359919975</v>
+        <v>1.051441515801206</v>
       </c>
       <c r="L8">
-        <v>1.066584943339133</v>
+        <v>1.048995274137489</v>
       </c>
       <c r="M8">
-        <v>1.074924147839069</v>
+        <v>1.056417731155119</v>
       </c>
       <c r="N8">
-        <v>1.071409401966443</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.019452359572184</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.04746647340277</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.032481379731011</v>
+        <v>1.016849412257188</v>
       </c>
       <c r="D9">
-        <v>1.04730771467516</v>
+        <v>1.033708849805124</v>
       </c>
       <c r="E9">
-        <v>1.040744389610083</v>
+        <v>1.029552516013153</v>
       </c>
       <c r="F9">
-        <v>1.048247168527485</v>
+        <v>1.036026156949637</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.065242072835398</v>
+        <v>1.05606769103631</v>
       </c>
       <c r="J9">
-        <v>1.056937064904368</v>
+        <v>1.041820889794423</v>
       </c>
       <c r="K9">
-        <v>1.059677207438305</v>
+        <v>1.046277713835641</v>
       </c>
       <c r="L9">
-        <v>1.053209280833636</v>
+        <v>1.042183653374843</v>
       </c>
       <c r="M9">
-        <v>1.060603130052517</v>
+        <v>1.048560577075916</v>
       </c>
       <c r="N9">
-        <v>1.058438036768907</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.017293417523831</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.043812247322478</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.020178749756096</v>
+        <v>1.009638954108059</v>
       </c>
       <c r="D10">
-        <v>1.037446091821375</v>
+        <v>1.028804326946951</v>
       </c>
       <c r="E10">
-        <v>1.029726508795208</v>
+        <v>1.023485163423283</v>
       </c>
       <c r="F10">
-        <v>1.036577930654878</v>
+        <v>1.029235919685952</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.059494246881015</v>
+        <v>1.0535453049075</v>
       </c>
       <c r="J10">
-        <v>1.04761402293915</v>
+        <v>1.037475292634892</v>
       </c>
       <c r="K10">
-        <v>1.051170631582867</v>
+        <v>1.042672282829367</v>
       </c>
       <c r="L10">
-        <v>1.043579012561686</v>
+        <v>1.037442949153983</v>
       </c>
       <c r="M10">
-        <v>1.050316739174639</v>
+        <v>1.043096639339967</v>
       </c>
       <c r="N10">
-        <v>1.049101755014732</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.01578821724456</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.04127968435534</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.014611047612099</v>
+        <v>1.006454643003237</v>
       </c>
       <c r="D11">
-        <v>1.032988820591761</v>
+        <v>1.02665356443075</v>
       </c>
       <c r="E11">
-        <v>1.024743552203117</v>
+        <v>1.020816968203987</v>
       </c>
       <c r="F11">
-        <v>1.031304827437409</v>
+        <v>1.026246597385333</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.056879023467229</v>
+        <v>1.052427612296386</v>
       </c>
       <c r="J11">
-        <v>1.043388373793144</v>
+        <v>1.035561344919736</v>
       </c>
       <c r="K11">
-        <v>1.04731432419562</v>
+        <v>1.04108974986644</v>
       </c>
       <c r="L11">
-        <v>1.039213455290832</v>
+        <v>1.03535670235158</v>
       </c>
       <c r="M11">
-        <v>1.04565957992339</v>
+        <v>1.040689953412211</v>
       </c>
       <c r="N11">
-        <v>1.044870104962249</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.015130208853617</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.040193378126932</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.012503466215286</v>
+        <v>1.005247920921393</v>
       </c>
       <c r="D12">
-        <v>1.031302575012247</v>
+        <v>1.02583464812464</v>
       </c>
       <c r="E12">
-        <v>1.022857922080511</v>
+        <v>1.019805659192312</v>
       </c>
       <c r="F12">
-        <v>1.02931006036443</v>
+        <v>1.025115015101579</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.055887033231584</v>
+        <v>1.051999028588063</v>
       </c>
       <c r="J12">
-        <v>1.041787924278045</v>
+        <v>1.034831828049571</v>
       </c>
       <c r="K12">
-        <v>1.045853673400913</v>
+        <v>1.040483087766645</v>
       </c>
       <c r="L12">
-        <v>1.037559922872591</v>
+        <v>1.034563002800741</v>
       </c>
       <c r="M12">
-        <v>1.043896474522887</v>
+        <v>1.039776366280232</v>
       </c>
       <c r="N12">
-        <v>1.043267382625265</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.014876889171087</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.039764453803187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.012957394907103</v>
+        <v>1.005505191226162</v>
       </c>
       <c r="D13">
-        <v>1.031665709512797</v>
+        <v>1.026008239359183</v>
       </c>
       <c r="E13">
-        <v>1.023264018089176</v>
+        <v>1.02002090402188</v>
       </c>
       <c r="F13">
-        <v>1.029739630874867</v>
+        <v>1.025356163158286</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.056100777559921</v>
+        <v>1.052089782193276</v>
       </c>
       <c r="J13">
-        <v>1.042132666058549</v>
+        <v>1.034986599188181</v>
       </c>
       <c r="K13">
-        <v>1.046168305742828</v>
+        <v>1.040611147593444</v>
       </c>
       <c r="L13">
-        <v>1.037916102975285</v>
+        <v>1.034731549474811</v>
       </c>
       <c r="M13">
-        <v>1.044276217692291</v>
+        <v>1.039970725683117</v>
       </c>
       <c r="N13">
-        <v>1.043612613978639</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.014930124503645</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.039852518544705</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.014437660695473</v>
+        <v>1.006354237361385</v>
       </c>
       <c r="D14">
-        <v>1.032850075168349</v>
+        <v>1.02658499779834</v>
       </c>
       <c r="E14">
-        <v>1.024588411934388</v>
+        <v>1.020732665729408</v>
       </c>
       <c r="F14">
-        <v>1.031140694602185</v>
+        <v>1.026152398645146</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.056797454992443</v>
+        <v>1.052391688813027</v>
       </c>
       <c r="J14">
-        <v>1.043256725177033</v>
+        <v>1.035500321113271</v>
       </c>
       <c r="K14">
-        <v>1.04719417670734</v>
+        <v>1.041038726078649</v>
       </c>
       <c r="L14">
-        <v>1.039077442071891</v>
+        <v>1.035290377406434</v>
       </c>
       <c r="M14">
-        <v>1.045514535879028</v>
+        <v>1.040613760642138</v>
       </c>
       <c r="N14">
-        <v>1.044738269390003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.015108802838528</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.040156242315518</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.015344361377698</v>
+        <v>1.006879917242566</v>
       </c>
       <c r="D15">
-        <v>1.033575664745107</v>
+        <v>1.026944124594829</v>
       </c>
       <c r="E15">
-        <v>1.025399719706751</v>
+        <v>1.021174121006488</v>
       </c>
       <c r="F15">
-        <v>1.031999055846224</v>
+        <v>1.026645643598096</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.057223922878826</v>
+        <v>1.05257977896617</v>
       </c>
       <c r="J15">
-        <v>1.043945126235587</v>
+        <v>1.035819883436617</v>
       </c>
       <c r="K15">
-        <v>1.047822433997512</v>
+        <v>1.041305986475674</v>
       </c>
       <c r="L15">
-        <v>1.039788662235413</v>
+        <v>1.035637701315958</v>
       </c>
       <c r="M15">
-        <v>1.046273014310822</v>
+        <v>1.041012731019241</v>
       </c>
       <c r="N15">
-        <v>1.045427648057021</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.015220949852332</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.040351033937289</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.02054291504594</v>
+        <v>1.009885422275676</v>
       </c>
       <c r="D16">
-        <v>1.03773775704352</v>
+        <v>1.028987456011832</v>
       </c>
       <c r="E16">
-        <v>1.030052504975971</v>
+        <v>1.023696948459336</v>
       </c>
       <c r="F16">
-        <v>1.036923000118581</v>
+        <v>1.029468071651748</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.059665016496141</v>
+        <v>1.053643527632231</v>
       </c>
       <c r="J16">
-        <v>1.047890282751338</v>
+        <v>1.037636698591724</v>
       </c>
       <c r="K16">
-        <v>1.051422731728603</v>
+        <v>1.042817139642791</v>
       </c>
       <c r="L16">
-        <v>1.043864405966233</v>
+        <v>1.037615673071931</v>
       </c>
       <c r="M16">
-        <v>1.050621316342174</v>
+        <v>1.043289724791052</v>
       </c>
       <c r="N16">
-        <v>1.04937840714754</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.015852282266242</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.041422598797152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.023737187301391</v>
+        <v>1.011747966434242</v>
       </c>
       <c r="D17">
-        <v>1.040296756507805</v>
+        <v>1.030255437760533</v>
       </c>
       <c r="E17">
-        <v>1.032912362911034</v>
+        <v>1.025262637502554</v>
       </c>
       <c r="F17">
-        <v>1.039950681743518</v>
+        <v>1.031219599772194</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.06116135100408</v>
+        <v>1.054300052499005</v>
       </c>
       <c r="J17">
-        <v>1.050312779645941</v>
+        <v>1.038762054985356</v>
       </c>
       <c r="K17">
-        <v>1.053633295802735</v>
+        <v>1.043752990568726</v>
       </c>
       <c r="L17">
-        <v>1.046366920796516</v>
+        <v>1.03884176015428</v>
       </c>
       <c r="M17">
-        <v>1.053292704116926</v>
+        <v>1.044701517423702</v>
       </c>
       <c r="N17">
-        <v>1.051804344265598</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.016243345385996</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.042086833799526</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.02557738651358</v>
+        <v>1.01281510213912</v>
       </c>
       <c r="D18">
-        <v>1.04177150749636</v>
+        <v>1.030977467924747</v>
       </c>
       <c r="E18">
-        <v>1.03456021248319</v>
+        <v>1.026158976890852</v>
       </c>
       <c r="F18">
-        <v>1.041695648836341</v>
+        <v>1.032223836875507</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.062022061582586</v>
+        <v>1.054671564903937</v>
       </c>
       <c r="J18">
-        <v>1.051707757986228</v>
+        <v>1.039402561916626</v>
       </c>
       <c r="K18">
-        <v>1.054906165125841</v>
+        <v>1.044282087019404</v>
       </c>
       <c r="L18">
-        <v>1.047807914678847</v>
+        <v>1.039540948798631</v>
       </c>
       <c r="M18">
-        <v>1.054831485220091</v>
+        <v>1.045508598235773</v>
       </c>
       <c r="N18">
-        <v>1.053201303635134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.016463366444259</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.042449370293443</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.026201046340762</v>
+        <v>1.013186356082031</v>
       </c>
       <c r="D19">
-        <v>1.042271399474586</v>
+        <v>1.031232690541797</v>
       </c>
       <c r="E19">
-        <v>1.035118732006526</v>
+        <v>1.026472119445442</v>
       </c>
       <c r="F19">
-        <v>1.042287156249649</v>
+        <v>1.03257346785649</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.062313538569026</v>
+        <v>1.054803505542221</v>
       </c>
       <c r="J19">
-        <v>1.052180423577504</v>
+        <v>1.039628518540551</v>
       </c>
       <c r="K19">
-        <v>1.055337443816965</v>
+        <v>1.044471464715527</v>
       </c>
       <c r="L19">
-        <v>1.048296161176342</v>
+        <v>1.039786855843108</v>
       </c>
       <c r="M19">
-        <v>1.055352957374676</v>
+        <v>1.045791009735074</v>
       </c>
       <c r="N19">
-        <v>1.053674640465766</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.016542993186413</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.042589605344901</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.023396870406125</v>
+        <v>1.011548084081964</v>
       </c>
       <c r="D20">
-        <v>1.040024065581298</v>
+        <v>1.030118908293262</v>
       </c>
       <c r="E20">
-        <v>1.032607642101299</v>
+        <v>1.025094411198413</v>
       </c>
       <c r="F20">
-        <v>1.039628035804101</v>
+        <v>1.031031529219144</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.061002068438424</v>
+        <v>1.054229413929156</v>
       </c>
       <c r="J20">
-        <v>1.050054749975475</v>
+        <v>1.038640991556059</v>
       </c>
       <c r="K20">
-        <v>1.053397846961503</v>
+        <v>1.0436520503051</v>
       </c>
       <c r="L20">
-        <v>1.046100374534309</v>
+        <v>1.038709905294103</v>
       </c>
       <c r="M20">
-        <v>1.053008114094196</v>
+        <v>1.044549823906572</v>
       </c>
       <c r="N20">
-        <v>1.051545948163403</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.016201075248008</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.042014141891171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.0140028784012</v>
+        <v>1.006116807569711</v>
       </c>
       <c r="D21">
-        <v>1.032502175849598</v>
+        <v>1.026429027566706</v>
       </c>
       <c r="E21">
-        <v>1.024199394727684</v>
+        <v>1.020535283381509</v>
       </c>
       <c r="F21">
-        <v>1.030729138934569</v>
+        <v>1.025929907512643</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.056592882756256</v>
+        <v>1.052311152674598</v>
       </c>
       <c r="J21">
-        <v>1.042926591231389</v>
+        <v>1.035360995174621</v>
       </c>
       <c r="K21">
-        <v>1.046892882681201</v>
+        <v>1.040926416241164</v>
       </c>
       <c r="L21">
-        <v>1.038736361577814</v>
+        <v>1.035137779880687</v>
       </c>
       <c r="M21">
-        <v>1.04515082286765</v>
+        <v>1.040436136671132</v>
       </c>
       <c r="N21">
-        <v>1.04440766661629</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.015063175267282</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.040090259208512</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.007866049156521</v>
+        <v>1.002610086408024</v>
       </c>
       <c r="D22">
-        <v>1.027594247199646</v>
+        <v>1.024045824912121</v>
       </c>
       <c r="E22">
-        <v>1.018710116286174</v>
+        <v>1.01759728344714</v>
       </c>
       <c r="F22">
-        <v>1.02492339365594</v>
+        <v>1.022644069940568</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.053700641969553</v>
+        <v>1.051058986263255</v>
       </c>
       <c r="J22">
-        <v>1.038264834202674</v>
+        <v>1.033236145950937</v>
       </c>
       <c r="K22">
-        <v>1.042638185114032</v>
+        <v>1.039155520010524</v>
       </c>
       <c r="L22">
-        <v>1.033919816255638</v>
+        <v>1.032828013526593</v>
       </c>
       <c r="M22">
-        <v>1.040016770914308</v>
+        <v>1.037779905616528</v>
       </c>
       <c r="N22">
-        <v>1.039739289357883</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.014322491942822</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.038824767999106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.011142375250535</v>
+        <v>1.00446189288352</v>
       </c>
       <c r="D23">
-        <v>1.03021388499899</v>
+        <v>1.025297361994471</v>
       </c>
       <c r="E23">
-        <v>1.021640353153721</v>
+        <v>1.019145970128962</v>
       </c>
       <c r="F23">
-        <v>1.02802220549251</v>
+        <v>1.024378171279559</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.055245835469016</v>
+        <v>1.051716442885694</v>
       </c>
       <c r="J23">
-        <v>1.040754103465521</v>
+        <v>1.034353189616118</v>
       </c>
       <c r="K23">
-        <v>1.044910134289377</v>
+        <v>1.040082189790896</v>
       </c>
       <c r="L23">
-        <v>1.03649178736807</v>
+        <v>1.034043192749468</v>
       </c>
       <c r="M23">
-        <v>1.042757805139697</v>
+        <v>1.03917968241337</v>
       </c>
       <c r="N23">
-        <v>1.042232093668606</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.014708465055173</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.039470381761764</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.023550715685519</v>
+        <v>1.011614625628788</v>
       </c>
       <c r="D24">
-        <v>1.040147337911689</v>
+        <v>1.030153806564713</v>
       </c>
       <c r="E24">
-        <v>1.032745394707014</v>
+        <v>1.025147235991958</v>
       </c>
       <c r="F24">
-        <v>1.039773890376815</v>
+        <v>1.031093817128772</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.061074078573937</v>
+        <v>1.054245260624421</v>
       </c>
       <c r="J24">
-        <v>1.050171397988007</v>
+        <v>1.038672795940917</v>
       </c>
       <c r="K24">
-        <v>1.053504287027048</v>
+        <v>1.043671301546362</v>
       </c>
       <c r="L24">
-        <v>1.046220872854059</v>
+        <v>1.038746675279762</v>
       </c>
       <c r="M24">
-        <v>1.053136767807833</v>
+        <v>1.044596040581254</v>
       </c>
       <c r="N24">
-        <v>1.051662761829493</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.01620680697347</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.042000572084608</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.037057580886668</v>
+        <v>1.019602894429344</v>
       </c>
       <c r="D25">
-        <v>1.050980010290234</v>
+        <v>1.035599169809089</v>
       </c>
       <c r="E25">
-        <v>1.04484492020758</v>
+        <v>1.031880016216479</v>
       </c>
       <c r="F25">
-        <v>1.052593928989282</v>
+        <v>1.038627093234119</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.067367818755391</v>
+        <v>1.057030685194571</v>
       </c>
       <c r="J25">
-        <v>1.060399081132835</v>
+        <v>1.043488085115294</v>
       </c>
       <c r="K25">
-        <v>1.062835310198545</v>
+        <v>1.047668892671952</v>
       </c>
       <c r="L25">
-        <v>1.056784794104332</v>
+        <v>1.044002802294316</v>
       </c>
       <c r="M25">
-        <v>1.064427186757179</v>
+        <v>1.050653969708178</v>
       </c>
       <c r="N25">
-        <v>1.061904969457519</v>
+        <v>1.017876885283285</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.04482418497599</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_38/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_38/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.02570487336381</v>
+        <v>1.023764470848572</v>
       </c>
       <c r="D2">
-        <v>1.039755015249092</v>
+        <v>1.037163445502351</v>
       </c>
       <c r="E2">
-        <v>1.037040507644606</v>
+        <v>1.035367727004114</v>
       </c>
       <c r="F2">
-        <v>1.044406130395206</v>
+        <v>1.042656118356328</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.059112190826378</v>
+        <v>1.057629799786354</v>
       </c>
       <c r="J2">
-        <v>1.047143026781698</v>
+        <v>1.045256901876989</v>
       </c>
       <c r="K2">
-        <v>1.050686948641473</v>
+        <v>1.048128220372922</v>
       </c>
       <c r="L2">
-        <v>1.048006845528842</v>
+        <v>1.046355378457913</v>
       </c>
       <c r="M2">
-        <v>1.055279632380579</v>
+        <v>1.053551529255133</v>
       </c>
       <c r="N2">
-        <v>1.019135543597058</v>
+        <v>1.018894889040076</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.046910300456747</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.045109777261468</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.02470439770318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.030036722731848</v>
+        <v>1.027838919868764</v>
       </c>
       <c r="D3">
-        <v>1.042723756375205</v>
+        <v>1.03983612484707</v>
       </c>
       <c r="E3">
-        <v>1.040719192223449</v>
+        <v>1.03881315905451</v>
       </c>
       <c r="F3">
-        <v>1.048522604104317</v>
+        <v>1.046537234226012</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.060578320986187</v>
+        <v>1.058914821878588</v>
       </c>
       <c r="J3">
-        <v>1.049740750789884</v>
+        <v>1.047598401945918</v>
       </c>
       <c r="K3">
-        <v>1.052837674254621</v>
+        <v>1.049983456789029</v>
       </c>
       <c r="L3">
-        <v>1.050856281479275</v>
+        <v>1.048972383279476</v>
       </c>
       <c r="M3">
-        <v>1.058570106645479</v>
+        <v>1.056607373356468</v>
       </c>
       <c r="N3">
-        <v>1.02003493911085</v>
+        <v>1.019533468046163</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.048428383786763</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.046418651349116</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.025105847997079</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.032786889618259</v>
+        <v>1.030427485432303</v>
       </c>
       <c r="D4">
-        <v>1.044612236817442</v>
+        <v>1.041537833329697</v>
       </c>
       <c r="E4">
-        <v>1.043060207290821</v>
+        <v>1.041007666001925</v>
       </c>
       <c r="F4">
-        <v>1.051142181659532</v>
+        <v>1.049009037463074</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.061500176195089</v>
+        <v>1.059722300965796</v>
       </c>
       <c r="J4">
-        <v>1.05138752759453</v>
+        <v>1.049083627548554</v>
       </c>
       <c r="K4">
-        <v>1.054200472022064</v>
+        <v>1.051159505453222</v>
       </c>
       <c r="L4">
-        <v>1.052665291989756</v>
+        <v>1.050635128685449</v>
       </c>
       <c r="M4">
-        <v>1.060660192579324</v>
+        <v>1.058549870820708</v>
       </c>
       <c r="N4">
-        <v>1.020605056936463</v>
+        <v>1.019938647642326</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.049392862025617</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.047251168681182</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.025358020341099</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.033935425424472</v>
+        <v>1.031508708714765</v>
       </c>
       <c r="D5">
-        <v>1.045403977170956</v>
+        <v>1.042251727854866</v>
       </c>
       <c r="E5">
-        <v>1.044039670882673</v>
+        <v>1.041926047259927</v>
       </c>
       <c r="F5">
-        <v>1.052237609555832</v>
+        <v>1.050042884929023</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.0618846551332</v>
+        <v>1.060059044200707</v>
       </c>
       <c r="J5">
-        <v>1.052076382577181</v>
+        <v>1.049705048650051</v>
       </c>
       <c r="K5">
-        <v>1.054771985772097</v>
+        <v>1.051653110214172</v>
       </c>
       <c r="L5">
-        <v>1.053422093520831</v>
+        <v>1.05133089177916</v>
       </c>
       <c r="M5">
-        <v>1.061534106944159</v>
+        <v>1.059362225291143</v>
       </c>
       <c r="N5">
-        <v>1.020844439013195</v>
+        <v>1.020108832176493</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.049804038182818</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.047607975005171</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.025463987302494</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.034133144570286</v>
+        <v>1.031694579533953</v>
       </c>
       <c r="D6">
-        <v>1.045543007810953</v>
+        <v>1.042377230350665</v>
       </c>
       <c r="E6">
-        <v>1.04420897246323</v>
+        <v>1.04208454044169</v>
       </c>
       <c r="F6">
-        <v>1.052426245297062</v>
+        <v>1.050220648163437</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.061952748038313</v>
+        <v>1.060118797962124</v>
       </c>
       <c r="J6">
-        <v>1.052197039784708</v>
+        <v>1.049813841680324</v>
       </c>
       <c r="K6">
-        <v>1.054874018453103</v>
+        <v>1.051741604788626</v>
       </c>
       <c r="L6">
-        <v>1.053554012208389</v>
+        <v>1.051452012031131</v>
       </c>
       <c r="M6">
-        <v>1.061685559568027</v>
+        <v>1.059502811194593</v>
       </c>
       <c r="N6">
-        <v>1.020887476188172</v>
+        <v>1.020139391610816</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.049884812199934</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.04768005255435</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.02548378641139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.032817323745942</v>
+        <v>1.030465296796638</v>
       </c>
       <c r="D7">
-        <v>1.044640397293797</v>
+        <v>1.041570933734114</v>
       </c>
       <c r="E7">
-        <v>1.043087824798809</v>
+        <v>1.041042126801871</v>
       </c>
       <c r="F7">
-        <v>1.05117114256052</v>
+        <v>1.049044753324795</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.06151582813143</v>
+        <v>1.059741802709959</v>
       </c>
       <c r="J7">
-        <v>1.05141145021841</v>
+        <v>1.049114728887026</v>
       </c>
       <c r="K7">
-        <v>1.054225496472409</v>
+        <v>1.051189402607704</v>
       </c>
       <c r="L7">
-        <v>1.05268977266234</v>
+        <v>1.050666368997114</v>
       </c>
       <c r="M7">
-        <v>1.060686036843944</v>
+        <v>1.058582388513559</v>
       </c>
       <c r="N7">
-        <v>1.020616392965645</v>
+        <v>1.019975740776863</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.049430409943275</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.047294176336129</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.025367728611366</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.027198986332981</v>
+        <v>1.025198965853453</v>
       </c>
       <c r="D8">
-        <v>1.040787079639959</v>
+        <v>1.038115420782919</v>
       </c>
       <c r="E8">
-        <v>1.038310392194208</v>
+        <v>1.036584476018652</v>
       </c>
       <c r="F8">
-        <v>1.045824669103841</v>
+        <v>1.044020421668205</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.059626421645707</v>
+        <v>1.058097776674019</v>
       </c>
       <c r="J8">
-        <v>1.048046583481578</v>
+        <v>1.0461006226585</v>
       </c>
       <c r="K8">
-        <v>1.051441515801206</v>
+        <v>1.048802707175553</v>
       </c>
       <c r="L8">
-        <v>1.048995274137489</v>
+        <v>1.04729068164658</v>
       </c>
       <c r="M8">
-        <v>1.056417731155119</v>
+        <v>1.05463538068757</v>
       </c>
       <c r="N8">
-        <v>1.019452359572184</v>
+        <v>1.019208464985677</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.04746647340277</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.045611610329295</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024856919734364</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.016849412257188</v>
+        <v>1.01548164453949</v>
       </c>
       <c r="D9">
-        <v>1.033708849805124</v>
+        <v>1.031756081818497</v>
       </c>
       <c r="E9">
-        <v>1.029552516013153</v>
+        <v>1.028399399289713</v>
       </c>
       <c r="F9">
-        <v>1.036026156949637</v>
+        <v>1.034800132569625</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.05606769103631</v>
+        <v>1.054978574313232</v>
       </c>
       <c r="J9">
-        <v>1.041820889794423</v>
+        <v>1.040499306279094</v>
       </c>
       <c r="K9">
-        <v>1.046277713835641</v>
+        <v>1.044354124180303</v>
       </c>
       <c r="L9">
-        <v>1.042183653374843</v>
+        <v>1.041047927121465</v>
       </c>
       <c r="M9">
-        <v>1.048560577075916</v>
+        <v>1.047352751598467</v>
       </c>
       <c r="N9">
-        <v>1.017293417523831</v>
+        <v>1.017689451231405</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.043812247322478</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.04246280474593</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023879395010953</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.009638954108059</v>
+        <v>1.008769288760289</v>
       </c>
       <c r="D10">
-        <v>1.028804326946951</v>
+        <v>1.027394119092281</v>
       </c>
       <c r="E10">
-        <v>1.023485163423283</v>
+        <v>1.022784247165906</v>
       </c>
       <c r="F10">
-        <v>1.029235919685952</v>
+        <v>1.028465922623412</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.0535453049075</v>
+        <v>1.052791200818305</v>
       </c>
       <c r="J10">
-        <v>1.037475292634892</v>
+        <v>1.036639249152191</v>
       </c>
       <c r="K10">
-        <v>1.042672282829367</v>
+        <v>1.041285773655995</v>
       </c>
       <c r="L10">
-        <v>1.037442949153983</v>
+        <v>1.03675395991936</v>
       </c>
       <c r="M10">
-        <v>1.043096639339967</v>
+        <v>1.042339557782718</v>
       </c>
       <c r="N10">
-        <v>1.01578821724456</v>
+        <v>1.016759055756864</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.04127968435534</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.040311677288378</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023199123595568</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.006454643003237</v>
+        <v>1.00587994832379</v>
       </c>
       <c r="D11">
-        <v>1.02665356443075</v>
+        <v>1.025539135965598</v>
       </c>
       <c r="E11">
-        <v>1.020816968203987</v>
+        <v>1.020386727051742</v>
       </c>
       <c r="F11">
-        <v>1.026246597385333</v>
+        <v>1.025748018808665</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.052427612296386</v>
+        <v>1.051861840617938</v>
       </c>
       <c r="J11">
-        <v>1.035561344919736</v>
+        <v>1.035010144027385</v>
       </c>
       <c r="K11">
-        <v>1.04108974986644</v>
+        <v>1.039994974736032</v>
       </c>
       <c r="L11">
-        <v>1.03535670235158</v>
+        <v>1.034934155113187</v>
       </c>
       <c r="M11">
-        <v>1.040689953412211</v>
+        <v>1.040200169640367</v>
       </c>
       <c r="N11">
-        <v>1.015130208853617</v>
+        <v>1.016556515234228</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.040193378126932</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.03943486943602</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022921643397587</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.005247920921393</v>
+        <v>1.00479308779198</v>
       </c>
       <c r="D12">
-        <v>1.02583464812464</v>
+        <v>1.02483826508235</v>
       </c>
       <c r="E12">
-        <v>1.019805659192312</v>
+        <v>1.019485948015725</v>
       </c>
       <c r="F12">
-        <v>1.025115015101579</v>
+        <v>1.024727059214221</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.051999028588063</v>
+        <v>1.051508890831686</v>
       </c>
       <c r="J12">
-        <v>1.034831828049571</v>
+        <v>1.034395971723992</v>
       </c>
       <c r="K12">
-        <v>1.040483087766645</v>
+        <v>1.039504587936851</v>
       </c>
       <c r="L12">
-        <v>1.034563002800741</v>
+        <v>1.034249113494441</v>
       </c>
       <c r="M12">
-        <v>1.039776366280232</v>
+        <v>1.039395380809394</v>
       </c>
       <c r="N12">
-        <v>1.014876889171087</v>
+        <v>1.016495355550253</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.039764453803187</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.039088161024248</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022815154732147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.005505191226162</v>
+        <v>1.00502461213772</v>
       </c>
       <c r="D13">
-        <v>1.026008239359183</v>
+        <v>1.024986522565176</v>
       </c>
       <c r="E13">
-        <v>1.02002090402188</v>
+        <v>1.019677469519853</v>
       </c>
       <c r="F13">
-        <v>1.025356163158286</v>
+        <v>1.024944458235811</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.052089782193276</v>
+        <v>1.051583412628194</v>
       </c>
       <c r="J13">
-        <v>1.034986599188181</v>
+        <v>1.034525984030181</v>
       </c>
       <c r="K13">
-        <v>1.040611147593444</v>
+        <v>1.039607700077987</v>
       </c>
       <c r="L13">
-        <v>1.034731549474811</v>
+        <v>1.034394344707401</v>
       </c>
       <c r="M13">
-        <v>1.039970725683117</v>
+        <v>1.039566388913205</v>
       </c>
       <c r="N13">
-        <v>1.014930124503645</v>
+        <v>1.016506948885079</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.039852518544705</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.039158342871462</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022837197490234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.006354237361385</v>
+        <v>1.005789421845455</v>
       </c>
       <c r="D14">
-        <v>1.02658499779834</v>
+        <v>1.025480310896949</v>
       </c>
       <c r="E14">
-        <v>1.020732665729408</v>
+        <v>1.020311541589065</v>
       </c>
       <c r="F14">
-        <v>1.026152398645146</v>
+        <v>1.025662942529257</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.052391688813027</v>
+        <v>1.051832158126258</v>
       </c>
       <c r="J14">
-        <v>1.035500321113271</v>
+        <v>1.034958634698056</v>
       </c>
       <c r="K14">
-        <v>1.041038726078649</v>
+        <v>1.039953549236394</v>
       </c>
       <c r="L14">
-        <v>1.035290377406434</v>
+        <v>1.034876795499566</v>
       </c>
       <c r="M14">
-        <v>1.040613760642138</v>
+        <v>1.040132951620411</v>
       </c>
       <c r="N14">
-        <v>1.015108802838528</v>
+        <v>1.016550780800616</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.040156242315518</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.039404416267497</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022912497932965</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.006879917242566</v>
+        <v>1.006263664668784</v>
       </c>
       <c r="D15">
-        <v>1.026944124594829</v>
+        <v>1.025788653541773</v>
       </c>
       <c r="E15">
-        <v>1.021174121006488</v>
+        <v>1.020705540574944</v>
       </c>
       <c r="F15">
-        <v>1.026645643598096</v>
+        <v>1.026108697997646</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.05257977896617</v>
+        <v>1.051987725782681</v>
       </c>
       <c r="J15">
-        <v>1.035819883436617</v>
+        <v>1.035228642771144</v>
       </c>
       <c r="K15">
-        <v>1.041305986475674</v>
+        <v>1.040170766284633</v>
       </c>
       <c r="L15">
-        <v>1.035637701315958</v>
+        <v>1.035177446933517</v>
       </c>
       <c r="M15">
-        <v>1.041012731019241</v>
+        <v>1.040485195702791</v>
       </c>
       <c r="N15">
-        <v>1.015220949852332</v>
+        <v>1.016581613235341</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.040351033937289</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.0395643956039</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022960509396379</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.009885422275676</v>
+        <v>1.008992234969631</v>
       </c>
       <c r="D16">
-        <v>1.028987456011832</v>
+        <v>1.027554243222426</v>
       </c>
       <c r="E16">
-        <v>1.023696948459336</v>
+        <v>1.02297396486234</v>
       </c>
       <c r="F16">
-        <v>1.029468071651748</v>
+        <v>1.028676118830055</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.053643527632231</v>
+        <v>1.052874588995632</v>
       </c>
       <c r="J16">
-        <v>1.037636698591724</v>
+        <v>1.036777909645927</v>
       </c>
       <c r="K16">
-        <v>1.042817139642791</v>
+        <v>1.041407931562056</v>
       </c>
       <c r="L16">
-        <v>1.037615673071931</v>
+        <v>1.036904949861398</v>
       </c>
       <c r="M16">
-        <v>1.043289724791052</v>
+        <v>1.042511009680838</v>
       </c>
       <c r="N16">
-        <v>1.015852282266242</v>
+        <v>1.016789197377983</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.041422598797152</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.04044253967087</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023231124770568</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.011747966434242</v>
+        <v>1.01069854833441</v>
       </c>
       <c r="D17">
-        <v>1.030255437760533</v>
+        <v>1.028661607678787</v>
       </c>
       <c r="E17">
-        <v>1.025262637502554</v>
+        <v>1.024396709489027</v>
       </c>
       <c r="F17">
-        <v>1.031219599772194</v>
+        <v>1.030284102644424</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.054300052499005</v>
+        <v>1.053429708561226</v>
       </c>
       <c r="J17">
-        <v>1.038762054985356</v>
+        <v>1.037751715696015</v>
       </c>
       <c r="K17">
-        <v>1.043752990568726</v>
+        <v>1.042185089122288</v>
       </c>
       <c r="L17">
-        <v>1.03884176015428</v>
+        <v>1.037990083321125</v>
       </c>
       <c r="M17">
-        <v>1.044701517423702</v>
+        <v>1.04378119007171</v>
       </c>
       <c r="N17">
-        <v>1.016243345385996</v>
+        <v>1.01695739724318</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.042086833799526</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.040994819538018</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023402204645116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.01281510213912</v>
+        <v>1.011682815921468</v>
       </c>
       <c r="D18">
-        <v>1.030977467924747</v>
+        <v>1.029296436395222</v>
       </c>
       <c r="E18">
-        <v>1.026158976890852</v>
+        <v>1.025217585915252</v>
       </c>
       <c r="F18">
-        <v>1.032223836875507</v>
+        <v>1.031212399913964</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.054671564903937</v>
+        <v>1.053746640256772</v>
       </c>
       <c r="J18">
-        <v>1.039402561916626</v>
+        <v>1.038311611841272</v>
       </c>
       <c r="K18">
-        <v>1.044282087019404</v>
+        <v>1.042627936152682</v>
       </c>
       <c r="L18">
-        <v>1.039540948798631</v>
+        <v>1.038614779285133</v>
       </c>
       <c r="M18">
-        <v>1.045508598235773</v>
+        <v>1.04451327125669</v>
       </c>
       <c r="N18">
-        <v>1.016463366444259</v>
+        <v>1.017066233585243</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.042449370293443</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.04129523274787</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023498405943356</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.013186356082031</v>
+        <v>1.012025758156538</v>
       </c>
       <c r="D19">
-        <v>1.031232690541797</v>
+        <v>1.029521804116369</v>
       </c>
       <c r="E19">
-        <v>1.026472119445442</v>
+        <v>1.025504861331545</v>
       </c>
       <c r="F19">
-        <v>1.03257346785649</v>
+        <v>1.031536027916088</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.054803505542221</v>
+        <v>1.053859898420666</v>
       </c>
       <c r="J19">
-        <v>1.039628518540551</v>
+        <v>1.038510001708997</v>
       </c>
       <c r="K19">
-        <v>1.044471464715527</v>
+        <v>1.042787774476874</v>
       </c>
       <c r="L19">
-        <v>1.039786855843108</v>
+        <v>1.038835142414988</v>
       </c>
       <c r="M19">
-        <v>1.045791009735074</v>
+        <v>1.044769992309222</v>
       </c>
       <c r="N19">
-        <v>1.016542993186413</v>
+        <v>1.017109265616195</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.042589605344901</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.041415206847809</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023534520984105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.011548084081964</v>
+        <v>1.010514866350217</v>
       </c>
       <c r="D20">
-        <v>1.030118908293262</v>
+        <v>1.0285418838731</v>
       </c>
       <c r="E20">
-        <v>1.025094411198413</v>
+        <v>1.024243296250391</v>
       </c>
       <c r="F20">
-        <v>1.031031529219144</v>
+        <v>1.03011091340914</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.054229413929156</v>
+        <v>1.053369647155371</v>
       </c>
       <c r="J20">
-        <v>1.038640991556059</v>
+        <v>1.037646389536808</v>
       </c>
       <c r="K20">
-        <v>1.0436520503051</v>
+        <v>1.042100762136621</v>
       </c>
       <c r="L20">
-        <v>1.038709905294103</v>
+        <v>1.037872843202857</v>
       </c>
       <c r="M20">
-        <v>1.044549823906572</v>
+        <v>1.04364418563817</v>
       </c>
       <c r="N20">
-        <v>1.016201075248008</v>
+        <v>1.016937493494416</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.042014141891171</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.040933744033169</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023383469469076</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.006116807569711</v>
+        <v>1.005599820223884</v>
       </c>
       <c r="D21">
-        <v>1.026429027566706</v>
+        <v>1.025365954090069</v>
       </c>
       <c r="E21">
-        <v>1.020535283381509</v>
+        <v>1.020158974956719</v>
       </c>
       <c r="F21">
-        <v>1.025929907512643</v>
+        <v>1.025484890057609</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.052311152674598</v>
+        <v>1.051779853412872</v>
       </c>
       <c r="J21">
-        <v>1.035360995174621</v>
+        <v>1.034865266762386</v>
       </c>
       <c r="K21">
-        <v>1.040926416241164</v>
+        <v>1.039882185507606</v>
       </c>
       <c r="L21">
-        <v>1.035137779880687</v>
+        <v>1.034768236063253</v>
       </c>
       <c r="M21">
-        <v>1.040436136671132</v>
+        <v>1.039999010843077</v>
       </c>
       <c r="N21">
-        <v>1.015063175267282</v>
+        <v>1.016612340754613</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.040090259208512</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.039368699037354</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022901788772533</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.002610086408024</v>
+        <v>1.002428341605181</v>
       </c>
       <c r="D22">
-        <v>1.024045824912121</v>
+        <v>1.02331590663844</v>
       </c>
       <c r="E22">
-        <v>1.01759728344714</v>
+        <v>1.017530186470277</v>
       </c>
       <c r="F22">
-        <v>1.022644069940568</v>
+        <v>1.022508662001145</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.051058986263255</v>
+        <v>1.050740039180772</v>
       </c>
       <c r="J22">
-        <v>1.033236145950937</v>
+        <v>1.033062320949388</v>
       </c>
       <c r="K22">
-        <v>1.039155520010524</v>
+        <v>1.038439201930279</v>
       </c>
       <c r="L22">
-        <v>1.032828013526593</v>
+        <v>1.032762186457987</v>
       </c>
       <c r="M22">
-        <v>1.037779905616528</v>
+        <v>1.037647027782015</v>
       </c>
       <c r="N22">
-        <v>1.014322491942822</v>
+        <v>1.016388158794893</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.038824767999106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.038333754776427</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022584547408614</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.00446189288352</v>
+        <v>1.004087442636587</v>
       </c>
       <c r="D23">
-        <v>1.025297361994471</v>
+        <v>1.024379529487028</v>
       </c>
       <c r="E23">
-        <v>1.019145970128962</v>
+        <v>1.018900658402647</v>
       </c>
       <c r="F23">
-        <v>1.024378171279559</v>
+        <v>1.02406458095651</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.051716442885694</v>
+        <v>1.051276772902617</v>
       </c>
       <c r="J23">
-        <v>1.034353189616118</v>
+        <v>1.033994566483628</v>
       </c>
       <c r="K23">
-        <v>1.040082189790896</v>
+        <v>1.039181015940599</v>
       </c>
       <c r="L23">
-        <v>1.034043192749468</v>
+        <v>1.033802399892309</v>
       </c>
       <c r="M23">
-        <v>1.03917968241337</v>
+        <v>1.03887179267862</v>
       </c>
       <c r="N23">
-        <v>1.014708465055173</v>
+        <v>1.016456959629465</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.039470381761764</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.038847722511318</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022743635391876</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.011614625628788</v>
+        <v>1.010577407083713</v>
       </c>
       <c r="D24">
-        <v>1.030153806564713</v>
+        <v>1.028571963839689</v>
       </c>
       <c r="E24">
-        <v>1.025147235991958</v>
+        <v>1.024292794656969</v>
       </c>
       <c r="F24">
-        <v>1.031093817128772</v>
+        <v>1.030169734636833</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.054245260624421</v>
+        <v>1.053382642345876</v>
       </c>
       <c r="J24">
-        <v>1.038672795940917</v>
+        <v>1.037674281401347</v>
       </c>
       <c r="K24">
-        <v>1.043671301546362</v>
+        <v>1.042115238610863</v>
       </c>
       <c r="L24">
-        <v>1.038746675279762</v>
+        <v>1.037906321853276</v>
       </c>
       <c r="M24">
-        <v>1.044596040581254</v>
+        <v>1.043686970550854</v>
       </c>
       <c r="N24">
-        <v>1.01620680697347</v>
+        <v>1.016937478365155</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.042000572084608</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.040914114833317</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023383191144582</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.019602894429344</v>
+        <v>1.018051044982506</v>
       </c>
       <c r="D25">
-        <v>1.035599169809089</v>
+        <v>1.033443792216328</v>
       </c>
       <c r="E25">
-        <v>1.031880016216479</v>
+        <v>1.0305594478255</v>
       </c>
       <c r="F25">
-        <v>1.038627093234119</v>
+        <v>1.037232364446987</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.057030685194571</v>
+        <v>1.055816473775264</v>
       </c>
       <c r="J25">
-        <v>1.043488085115294</v>
+        <v>1.041985824753644</v>
       </c>
       <c r="K25">
-        <v>1.047668892671952</v>
+        <v>1.045544208152599</v>
       </c>
       <c r="L25">
-        <v>1.044002802294316</v>
+        <v>1.042701191871501</v>
       </c>
       <c r="M25">
-        <v>1.050653969708178</v>
+        <v>1.049278937634764</v>
       </c>
       <c r="N25">
-        <v>1.017876885283285</v>
+        <v>1.018064666426254</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.04482418497599</v>
+        <v>1.04333537520626</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024145302395706</v>
       </c>
     </row>
   </sheetData>
